--- a/ESProject/d2.xlsx
+++ b/ESProject/d2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЭС проект\PR\ESProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ESProject\ESProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>1 пара</t>
   </si>
@@ -127,45 +127,6 @@
   </si>
   <si>
     <t>Автоматика</t>
-  </si>
-  <si>
-    <t>АСОИ121</t>
-  </si>
-  <si>
-    <t>АСОИ122</t>
-  </si>
-  <si>
-    <t>АЭП121</t>
-  </si>
-  <si>
-    <t>АЭП122</t>
-  </si>
-  <si>
-    <t>ММИПУ</t>
-  </si>
-  <si>
-    <t>СПО</t>
-  </si>
-  <si>
-    <t>АЭВМ</t>
-  </si>
-  <si>
-    <t>Эконом</t>
-  </si>
-  <si>
-    <t>ОИТ</t>
-  </si>
-  <si>
-    <t>СВЧ</t>
-  </si>
-  <si>
-    <t>ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭАЭ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНЯЗ </t>
   </si>
 </sst>
 </file>
@@ -349,7 +310,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -629,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,27 +607,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -674,27 +621,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -704,27 +637,6 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -732,27 +644,6 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -760,90 +651,24 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -851,21 +676,6 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,105 +683,30 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -979,21 +714,6 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,527 +721,224 @@
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>13</v>
       </c>
@@ -1529,37 +946,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
@@ -1567,37 +984,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>1</v>
